--- a/biology/Histoire de la zoologie et de la botanique/François_Fresneau_de_La_Gataudière/François_Fresneau_de_La_Gataudière.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/François_Fresneau_de_La_Gataudière/François_Fresneau_de_La_Gataudière.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Fresneau_de_La_Gataudi%C3%A8re</t>
+          <t>François_Fresneau_de_La_Gataudière</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">François Fresneau de La Gataudière, sieur de la Ruchauderie, né le 29 septembre 1703 à Marennes et mort le 25 juin 1770 dans la même ville, est un mathématicien, un astronome et un ingénieur du roi au XVIIIe siècle.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Fresneau_de_La_Gataudi%C3%A8re</t>
+          <t>François_Fresneau_de_La_Gataudière</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Son père, François Fresneau de La Ruchauderie, secrétaire du Roi à la Cour des aides de Guyenne, dirige lui-même son éducation, et à 23 ans, le jeune homme gagne Paris pour étudier les mathématiques et l'astronomie. En 1732, à 29 ans, il obtient de Maurepas une charge d’ingénieur de la Marine à Cayenne en Guyane.
 Il séjourne en Guyane entre 1732 et 1748. De son séjour en terre guyanaise, le Centre des Archives d'outre-mer dispose d’une importante correspondance entre 1732 et 1749. Ingénieur du roi, il se charge en 1734 de la remise en état des fortifications de la ville. Il a le projet de tracer une route jusqu’à la forêt du Haut Camopi en raison des difficultés de communication. Esprit ingénieux, il invente une machine à piler le manioc, propose de lever une carte de la colonie et projette l’établissement d’un marais salant en 1740. Il conçoit un soufflet pour injecter des matières soufrées dans les fourmilières qui infestent les plantations de cacaoyers et de manioc. Curieux de tout, il se passionne pour l’histoire naturelle guyanaise et herborise.
@@ -529,7 +543,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Fran%C3%A7ois_Fresneau_de_La_Gataudi%C3%A8re</t>
+          <t>François_Fresneau_de_La_Gataudière</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,7 +561,9 @@
           <t>Hommages</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Rue François-Fresneau, Marennes-Hiers-Brouage
 Centre Fresneau (complexe sportif), Saint-Léger-des-Vignes</t>
